--- a/table_sim.xlsx
+++ b/table_sim.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,12 +22,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="42">
   <si>
     <t xml:space="preserve">T</t>
   </si>
   <si>
     <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with NEW CHOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [,3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1,]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2,]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3,]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_sr</t>
   </si>
   <si>
     <t xml:space="preserve">SHD</t>
@@ -127,10 +154,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="\(General\)"/>
     <numFmt numFmtId="166" formatCode="\(0.00E+00\)"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -197,7 +225,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -207,6 +235,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -227,13 +259,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L26"/>
+  <dimension ref="A2:L58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F50" activeCellId="0" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="n">
@@ -623,6 +666,266 @@
       </c>
       <c r="J26" s="2" t="n">
         <v>0.027312328</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>0.1102535</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>0.1606875</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>0.151412</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3" t="n">
+        <v>0.06026189</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>0.05175596</v>
+      </c>
+      <c r="J43" s="3" t="n">
+        <v>0.02658815</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="2" t="n">
+        <v>0.004886411</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>0.006852475</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>0.006326764</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2" t="n">
+        <v>0.003637909</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>0.003715583</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <v>0.002042737</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>0.5578522</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>0.6554548</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>0.7085047</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3" t="n">
+        <v>0.11976385</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>0.09772786</v>
+      </c>
+      <c r="J45" s="3" t="n">
+        <v>0.05869373</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="2" t="n">
+        <v>0.008225781</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>0.009850632</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>0.010502667</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2" t="n">
+        <v>0.004028779</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>0.003933567</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>0.002419522</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>10.9872171</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>11.3833416</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>13.4034019</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3" t="n">
+        <v>1.02210946</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>0.62872284</v>
+      </c>
+      <c r="J47" s="3" t="n">
+        <v>0.59117902</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="2" t="n">
+        <v>0.341646943</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>0.345564824</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>0.413357697</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2" t="n">
+        <v>0.03781459</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>0.027952841</v>
+      </c>
+      <c r="J48" s="2" t="n">
+        <v>0.027312328</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D51" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D56" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D57" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D58" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -643,82 +946,82 @@
   </sheetPr>
   <dimension ref="B1:T38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L43" activeCellId="0" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1.35</v>
@@ -739,7 +1042,7 @@
         <v>0.72</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>1.63</v>
@@ -804,7 +1107,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>3.72</v>
@@ -825,7 +1128,7 @@
         <v>0.35</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>8.19</v>
@@ -890,7 +1193,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>3.41</v>
@@ -911,7 +1214,7 @@
         <v>2.81</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>7.6</v>
@@ -976,7 +1279,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3.79</v>
@@ -997,7 +1300,7 @@
         <v>2.96</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>8.68</v>
@@ -1062,7 +1365,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3.97</v>
@@ -1083,7 +1386,7 @@
         <v>3.99</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>6.42</v>
@@ -1148,63 +1451,63 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="D15" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="H15" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="N15" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="O15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="P15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="R15" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>3.31</v>
@@ -1225,7 +1528,7 @@
         <v>1.76</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>5.03</v>
@@ -1290,7 +1593,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>6.09</v>
@@ -1311,7 +1614,7 @@
         <v>0.88</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>15.43</v>
@@ -1376,7 +1679,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>5.23</v>
@@ -1397,7 +1700,7 @@
         <v>3.4</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>14.35</v>
@@ -1462,7 +1765,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>5.85</v>
@@ -1483,7 +1786,7 @@
         <v>3.76</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>17.31</v>
@@ -1548,7 +1851,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>9.12</v>
@@ -1569,7 +1872,7 @@
         <v>9.05</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>12.83</v>
@@ -1634,63 +1937,63 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="S27" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>6.14</v>
@@ -1711,7 +2014,7 @@
         <v>3.3</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>10.65</v>
@@ -1776,7 +2079,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>8.71</v>
@@ -1797,7 +2100,7 @@
         <v>1.5</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>24.29</v>
@@ -1862,7 +2165,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>6.79</v>
@@ -1883,7 +2186,7 @@
         <v>4.23</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M33" s="0" t="n">
         <v>21.61</v>
@@ -1948,7 +2251,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>7.66</v>
@@ -1969,7 +2272,7 @@
         <v>4.53</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M35" s="0" t="n">
         <v>26.9</v>
@@ -2034,7 +2337,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>16.21</v>
@@ -2055,7 +2358,7 @@
         <v>16.2</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M37" s="0" t="n">
         <v>20.38</v>
@@ -2136,48 +2439,45 @@
   </sheetPr>
   <dimension ref="B2:AB159"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U15" activeCellId="0" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1.35</v>
@@ -2186,10 +2486,10 @@
         <v>1.55</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2200,7 +2500,7 @@
         <v>0.067</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="0" t="n">
         <v>1.63</v>
@@ -2229,7 +2529,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>3.72</v>
@@ -2270,7 +2570,7 @@
         <v>0.046</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="0" t="n">
         <v>8.19</v>
@@ -2299,7 +2599,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>3.41</v>
@@ -2340,7 +2640,7 @@
         <v>0.069</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="0" t="n">
         <v>7.6</v>
@@ -2369,7 +2669,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3.79</v>
@@ -2410,7 +2710,7 @@
         <v>0.069</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="0" t="n">
         <v>8.68</v>
@@ -2439,7 +2739,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>4.03</v>
@@ -2480,7 +2780,7 @@
         <v>0.051</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>6.7</v>
@@ -2509,7 +2809,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.17</v>
@@ -2550,7 +2850,7 @@
         <v>0.065</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="0" t="n">
         <v>0.23</v>
@@ -2561,7 +2861,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>3.97</v>
@@ -2584,7 +2884,7 @@
         <v>0.053</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="0" t="n">
         <v>6.42</v>
@@ -2603,29 +2903,29 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0.89</v>
@@ -2640,10 +2940,10 @@
         <v>1.1</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2660,7 +2960,7 @@
         <v>0.061</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="0" t="n">
         <v>1.05</v>
@@ -2689,7 +2989,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>3.82</v>
@@ -2742,7 +3042,7 @@
         <v>0.04</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="0" t="n">
         <v>8.37</v>
@@ -2771,7 +3071,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3.39</v>
@@ -2824,7 +3124,7 @@
         <v>0.07</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q27" s="0" t="n">
         <v>7.54</v>
@@ -2853,7 +3153,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>3.78</v>
@@ -2906,7 +3206,7 @@
         <v>0.071</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q29" s="0" t="n">
         <v>8.63</v>
@@ -2935,7 +3235,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>3.99</v>
@@ -2988,7 +3288,7 @@
         <v>0.053</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q31" s="0" t="n">
         <v>6.81</v>
@@ -3017,7 +3317,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0.08</v>
@@ -3058,7 +3358,7 @@
         <v>0.066</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Q33" s="0" t="n">
         <v>0.11</v>
@@ -3069,7 +3369,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Q34" s="0" t="n">
         <v>0.024</v>
@@ -3080,7 +3380,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P35" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Q35" s="0" t="n">
         <v>6.49</v>
@@ -3135,10 +3435,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="U37" s="0" t="n">
         <v>24.29</v>
@@ -3161,16 +3461,16 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Q38" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="U38" s="0" t="n">
         <v>0.478</v>
@@ -3193,7 +3493,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0.56</v>
@@ -3208,10 +3508,10 @@
         <v>0.72</v>
       </c>
       <c r="Q39" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R39" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U39" s="0" t="n">
         <v>21.61</v>
@@ -3246,7 +3546,7 @@
         <v>0.048</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q40" s="0" t="n">
         <v>0.7</v>
@@ -3275,7 +3575,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>4</v>
@@ -3328,7 +3628,7 @@
         <v>0.034</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q42" s="0" t="n">
         <v>8.51</v>
@@ -3357,7 +3657,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>3.35</v>
@@ -3410,7 +3710,7 @@
         <v>0.071</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q44" s="0" t="n">
         <v>7.41</v>
@@ -3439,7 +3739,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>3.63</v>
@@ -3474,7 +3774,7 @@
         <v>0.07</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q46" s="0" t="n">
         <v>8.2</v>
@@ -3485,7 +3785,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>4.06</v>
@@ -3520,7 +3820,7 @@
         <v>0.055</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q48" s="0" t="n">
         <v>6.98</v>
@@ -3531,7 +3831,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0.09</v>
@@ -3554,7 +3854,7 @@
         <v>0.066</v>
       </c>
       <c r="P50" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Q50" s="0" t="n">
         <v>0.13</v>
@@ -3565,7 +3865,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>3.93</v>
@@ -3588,7 +3888,7 @@
         <v>0.055</v>
       </c>
       <c r="P52" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Q52" s="0" t="n">
         <v>6.59</v>
@@ -3607,37 +3907,37 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="P56" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P57" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q57" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="Q57" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>3.31</v>
@@ -3652,10 +3952,10 @@
         <v>3.84</v>
       </c>
       <c r="Q58" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R58" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3672,7 +3972,7 @@
         <v>0.135</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q59" s="0" t="n">
         <v>5.03</v>
@@ -3683,7 +3983,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>6.09</v>
@@ -3718,7 +4018,7 @@
         <v>0.074</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q61" s="0" t="n">
         <v>15.43</v>
@@ -3729,7 +4029,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>5.23</v>
@@ -3764,7 +4064,7 @@
         <v>0.091</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q63" s="0" t="n">
         <v>14.35</v>
@@ -3775,7 +4075,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>5.85</v>
@@ -3810,7 +4110,7 @@
         <v>0.1</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q65" s="0" t="n">
         <v>17.31</v>
@@ -3821,7 +4121,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>5.92</v>
@@ -3856,7 +4156,7 @@
         <v>0.117</v>
       </c>
       <c r="P67" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q67" s="0" t="n">
         <v>13.53</v>
@@ -3867,7 +4167,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>0.33</v>
@@ -3890,7 +4190,7 @@
         <v>0.105</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Q69" s="0" t="n">
         <v>0.58</v>
@@ -3901,7 +4201,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>9.12</v>
@@ -3924,7 +4224,7 @@
         <v>0.117</v>
       </c>
       <c r="P71" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Q71" s="0" t="n">
         <v>12.83</v>
@@ -3943,29 +4243,29 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P74" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="Q74" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>2.46</v>
@@ -3980,10 +4280,10 @@
         <v>2.75</v>
       </c>
       <c r="Q75" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R75" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4000,7 +4300,7 @@
         <v>0.127</v>
       </c>
       <c r="P76" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q76" s="0" t="n">
         <v>3.32</v>
@@ -4011,7 +4311,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>6.69</v>
@@ -4046,7 +4346,7 @@
         <v>0.068</v>
       </c>
       <c r="P78" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q78" s="0" t="n">
         <v>15.3</v>
@@ -4057,7 +4357,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>4.9</v>
@@ -4092,7 +4392,7 @@
         <v>0.092</v>
       </c>
       <c r="P80" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q80" s="0" t="n">
         <v>12.92</v>
@@ -4103,7 +4403,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>5.58</v>
@@ -4138,7 +4438,7 @@
         <v>0.104</v>
       </c>
       <c r="P82" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q82" s="0" t="n">
         <v>15.93</v>
@@ -4149,7 +4449,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>5.85</v>
@@ -4184,7 +4484,7 @@
         <v>0.113</v>
       </c>
       <c r="P84" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q84" s="0" t="n">
         <v>13.2</v>
@@ -4195,7 +4495,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>0.17</v>
@@ -4218,7 +4518,7 @@
         <v>0.117</v>
       </c>
       <c r="P86" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Q86" s="0" t="n">
         <v>0.23</v>
@@ -4229,7 +4529,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>8.96</v>
@@ -4252,7 +4552,7 @@
         <v>0.113</v>
       </c>
       <c r="P88" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Q88" s="0" t="n">
         <v>12.77</v>
@@ -4271,29 +4571,29 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P91" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="Q91" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>1.78</v>
@@ -4308,10 +4608,10 @@
         <v>1.76</v>
       </c>
       <c r="Q92" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R92" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4328,7 +4628,7 @@
         <v>0.102</v>
       </c>
       <c r="P93" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q93" s="0" t="n">
         <v>2.37</v>
@@ -4339,7 +4639,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>7.38</v>
@@ -4374,7 +4674,7 @@
         <v>0.061</v>
       </c>
       <c r="P95" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q95" s="0" t="n">
         <v>15.81</v>
@@ -4385,7 +4685,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>5.13</v>
@@ -4420,7 +4720,7 @@
         <v>0.085</v>
       </c>
       <c r="P97" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q97" s="0" t="n">
         <v>12.82</v>
@@ -4431,7 +4731,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>5.69</v>
@@ -4466,7 +4766,7 @@
         <v>0.094</v>
       </c>
       <c r="P99" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q99" s="0" t="n">
         <v>15.33</v>
@@ -4477,7 +4777,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>6</v>
@@ -4512,7 +4812,7 @@
         <v>0.114</v>
       </c>
       <c r="P101" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q101" s="0" t="n">
         <v>13.83</v>
@@ -4523,7 +4823,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>0.18</v>
@@ -4546,7 +4846,7 @@
         <v>0.116</v>
       </c>
       <c r="P103" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Q103" s="0" t="n">
         <v>0.34</v>
@@ -4557,7 +4857,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>9.02</v>
@@ -4580,7 +4880,7 @@
         <v>0.114</v>
       </c>
       <c r="P105" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Q105" s="0" t="n">
         <v>12.89</v>
@@ -4599,37 +4899,37 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P109" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P110" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q110" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>6.14</v>
@@ -4656,10 +4956,10 @@
         <v>3.3</v>
       </c>
       <c r="Q111" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R111" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4688,7 +4988,7 @@
         <v>0.155</v>
       </c>
       <c r="P112" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q112" s="0" t="n">
         <v>10.65</v>
@@ -4699,7 +4999,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>8.71</v>
@@ -4758,7 +5058,7 @@
         <v>0.094</v>
       </c>
       <c r="P114" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q114" s="0" t="n">
         <v>24.29</v>
@@ -4769,7 +5069,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>6.79</v>
@@ -4828,7 +5128,7 @@
         <v>0.104</v>
       </c>
       <c r="P116" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q116" s="0" t="n">
         <v>21.61</v>
@@ -4839,7 +5139,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>7.66</v>
@@ -4898,7 +5198,7 @@
         <v>0.112</v>
       </c>
       <c r="P118" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q118" s="0" t="n">
         <v>26.9</v>
@@ -4909,7 +5209,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>7.89</v>
@@ -4968,7 +5268,7 @@
         <v>0.231</v>
       </c>
       <c r="P120" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q120" s="0" t="n">
         <v>21.14</v>
@@ -4979,7 +5279,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>0.34</v>
@@ -5002,7 +5302,7 @@
         <v>0.145</v>
       </c>
       <c r="P122" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Q122" s="0" t="n">
         <v>0.72</v>
@@ -5013,7 +5313,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>16.21</v>
@@ -5036,7 +5336,7 @@
         <v>0.237</v>
       </c>
       <c r="P124" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Q124" s="0" t="n">
         <v>20.38</v>
@@ -5055,29 +5355,29 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C127" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P127" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q127" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>5.82</v>
@@ -5086,10 +5386,10 @@
         <v>4.91</v>
       </c>
       <c r="Q128" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R128" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5100,7 +5400,7 @@
         <v>0.18</v>
       </c>
       <c r="P129" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q129" s="0" t="n">
         <v>7.63</v>
@@ -5111,7 +5411,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>9.67</v>
@@ -5134,7 +5434,7 @@
         <v>0.098</v>
       </c>
       <c r="P131" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q131" s="0" t="n">
         <v>24.39</v>
@@ -5145,7 +5445,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>6.73</v>
@@ -5168,7 +5468,7 @@
         <v>0.106</v>
       </c>
       <c r="P133" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q133" s="0" t="n">
         <v>20.54</v>
@@ -5179,7 +5479,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>7.55</v>
@@ -5202,7 +5502,7 @@
         <v>0.117</v>
       </c>
       <c r="P135" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q135" s="0" t="n">
         <v>25.67</v>
@@ -5213,7 +5513,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>7.85</v>
@@ -5236,7 +5536,7 @@
         <v>0.108</v>
       </c>
       <c r="P137" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q137" s="0" t="n">
         <v>21.23</v>
@@ -5247,7 +5547,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>0.31</v>
@@ -5270,7 +5570,7 @@
         <v>0.152</v>
       </c>
       <c r="P139" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Q139" s="0" t="n">
         <v>0.72</v>
@@ -5281,7 +5581,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>15.94</v>
@@ -5304,7 +5604,7 @@
         <v>0.234</v>
       </c>
       <c r="P141" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Q141" s="0" t="n">
         <v>20.04</v>
@@ -5323,29 +5623,29 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C144" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P144" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q144" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>6.57</v>
@@ -5354,10 +5654,10 @@
         <v>3.3</v>
       </c>
       <c r="Q145" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R145" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5368,7 +5668,7 @@
         <v>0.155</v>
       </c>
       <c r="P146" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q146" s="0" t="n">
         <v>6.18</v>
@@ -5379,7 +5679,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>10.53</v>
@@ -5402,7 +5702,7 @@
         <v>0.094</v>
       </c>
       <c r="P148" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q148" s="0" t="n">
         <v>23.77</v>
@@ -5413,7 +5713,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>6.75</v>
@@ -5436,7 +5736,7 @@
         <v>0.104</v>
       </c>
       <c r="P150" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q150" s="0" t="n">
         <v>19.38</v>
@@ -5447,7 +5747,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>7.47</v>
@@ -5470,7 +5770,7 @@
         <v>0.112</v>
       </c>
       <c r="P152" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q152" s="0" t="n">
         <v>23.92</v>
@@ -5481,7 +5781,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>7.82</v>
@@ -5504,7 +5804,7 @@
         <v>0.103</v>
       </c>
       <c r="P154" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q154" s="0" t="n">
         <v>20.95</v>
@@ -5515,7 +5815,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>0.22</v>
@@ -5538,7 +5838,7 @@
         <v>0.155</v>
       </c>
       <c r="P156" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Q156" s="0" t="n">
         <v>0.4</v>
@@ -5549,7 +5849,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>16.21</v>
@@ -5572,7 +5872,7 @@
         <v>0.231</v>
       </c>
       <c r="P158" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Q158" s="0" t="n">
         <v>19.71</v>

--- a/table_sim.xlsx
+++ b/table_sim.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="42">
   <si>
     <t xml:space="preserve">T</t>
   </si>
@@ -154,11 +154,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="\(General\)"/>
-    <numFmt numFmtId="166" formatCode="\(0.00E+00\)"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="\(General\)"/>
+    <numFmt numFmtId="167" formatCode="\(0.00\)"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="\(0.00E+00\)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -225,7 +227,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -239,6 +241,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -259,30 +269,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L58"/>
+  <dimension ref="A2:U55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F50" activeCellId="0" sqref="F50"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7448979591837"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.4897959183673"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>500</v>
       </c>
     </row>
@@ -293,243 +301,298 @@
       <c r="B3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>45.33</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="0" t="n">
+      <c r="E3" s="1" t="n">
+        <v>48.83333</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>55.83333</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J3" s="0" t="n">
-        <v>70.67</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>82</v>
+      <c r="I3" s="1" t="n">
+        <v>74.166667</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>69.33333</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="n">
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="n">
+      <c r="E4" s="3" t="n">
+        <v>0.1666667</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>1.0137938</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="1" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>0.58</v>
+      <c r="I4" s="3" t="n">
+        <v>0.1666667</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0.6666667</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="D5" s="1" t="n">
+        <v>0.3333333</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="J5" s="0" t="n">
+      <c r="F5" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="n">
+        <v>0.8333333</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K5" s="0" t="n">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J5" s="1" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
       <c r="B6" s="0"/>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="3" t="n">
+        <v>0.1666667</v>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="F6" s="3" t="n">
+        <v>0.7637626</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="n">
+        <v>0.1666667</v>
+      </c>
+      <c r="I6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="G6" s="0"/>
-      <c r="I6" s="1" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="0"/>
       <c r="L6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="D7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="n">
+        <v>0.3333333</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>8.166667</v>
+      </c>
+      <c r="J7" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
       <c r="B8" s="0"/>
-      <c r="D8" s="1" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="F8" s="1" t="n">
+      <c r="D8" s="3" t="n">
+        <v>0.2886751</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0.7637626</v>
+      </c>
+      <c r="F8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="0"/>
-      <c r="I8" s="1" t="n">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="n">
+        <v>0.1666667</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0.4409586</v>
+      </c>
+      <c r="J8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="K8" s="0"/>
       <c r="L8" s="0"/>
-    </row>
-    <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
       <c r="B10" s="0"/>
       <c r="C10" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
-      <c r="J10" s="0"/>
-      <c r="K10" s="0"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
       <c r="L10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>92.33</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>87.5</v>
-      </c>
+      <c r="E11" s="1" t="n">
+        <v>91.166667</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>91.666667</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="n">
+      <c r="C12" s="2"/>
+      <c r="D12" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="1" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="E12" s="3" t="n">
+        <v>0.1666667</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0.1666667</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="F13" s="1" t="n">
+        <v>5.333333</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="2"/>
+      <c r="D14" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>11.83</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="n">
+      <c r="E14" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>0.88</v>
-      </c>
+      <c r="F14" s="3" t="n">
+        <v>0.3333333</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
+        <v>0.8333333</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>5.833333</v>
+      </c>
+      <c r="F15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F15" s="0" t="n">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="2"/>
+      <c r="D16" s="3" t="n">
+        <v>0.1666667</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0.3333333</v>
+      </c>
+      <c r="F16" s="3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
@@ -558,25 +621,26 @@
       <c r="J21" s="0" t="n">
         <v>0.027</v>
       </c>
+      <c r="U21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="5" t="n">
         <v>0.004915428</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="5" t="n">
         <v>0.006890591</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="5" t="n">
         <v>0.006367076</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="n">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5" t="n">
         <v>0.003637909</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="5" t="n">
         <v>0.003715583</v>
       </c>
-      <c r="J22" s="2" t="n">
+      <c r="J22" s="5" t="n">
         <v>0.002042737</v>
       </c>
     </row>
@@ -602,25 +666,30 @@
       <c r="J23" s="0" t="n">
         <v>0.059</v>
       </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="5" t="n">
         <v>0.005212336</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="5" t="n">
         <v>0.00720658</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="5" t="n">
         <v>0.007006342</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2" t="n">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="n">
         <v>0.004028779</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="I24" s="5" t="n">
         <v>0.003933567</v>
       </c>
-      <c r="J24" s="2" t="n">
+      <c r="J24" s="5" t="n">
         <v>0.002419522</v>
       </c>
     </row>
@@ -646,25 +715,27 @@
       <c r="J25" s="0" t="n">
         <v>0.591</v>
       </c>
+      <c r="Q25" s="2"/>
+      <c r="U25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="5" t="n">
         <v>0.067229846</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="5" t="n">
         <v>0.068308915</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="5" t="n">
         <v>0.098761948</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2" t="n">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5" t="n">
         <v>0.03781459</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="5" t="n">
         <v>0.027952841</v>
       </c>
-      <c r="J26" s="2" t="n">
+      <c r="J26" s="5" t="n">
         <v>0.027312328</v>
       </c>
     </row>
@@ -737,195 +808,243 @@
       <c r="B43" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="D43" s="3" t="n">
-        <v>0.1102535</v>
-      </c>
-      <c r="E43" s="3" t="n">
-        <v>0.1606875</v>
-      </c>
-      <c r="F43" s="3" t="n">
-        <v>0.151412</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3" t="n">
-        <v>0.06026189</v>
-      </c>
-      <c r="I43" s="3" t="n">
-        <v>0.05175596</v>
-      </c>
-      <c r="J43" s="3" t="n">
-        <v>0.02658815</v>
+      <c r="D43" s="4" t="n">
+        <v>0.1388705</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>0.1551717</v>
+      </c>
+      <c r="F43" s="4" t="n">
+        <v>0.1565053</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4" t="n">
+        <v>0.0760896</v>
+      </c>
+      <c r="I43" s="4" t="n">
+        <v>0.05395734</v>
+      </c>
+      <c r="J43" s="4" t="n">
+        <v>0.02865976</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="2" t="n">
-        <v>0.004886411</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>0.006852475</v>
-      </c>
-      <c r="F44" s="2" t="n">
-        <v>0.006326764</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2" t="n">
-        <v>0.003637909</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>0.003715583</v>
-      </c>
-      <c r="J44" s="2" t="n">
-        <v>0.002042737</v>
+      <c r="D44" s="5" t="n">
+        <v>0.006570598</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>0.006902097</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>0.006925321</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5" t="n">
+        <v>0.004803949</v>
+      </c>
+      <c r="I44" s="5" t="n">
+        <v>0.003759123</v>
+      </c>
+      <c r="J44" s="5" t="n">
+        <v>0.002324419</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="D45" s="3" t="n">
-        <v>0.5578522</v>
-      </c>
-      <c r="E45" s="3" t="n">
-        <v>0.6554548</v>
-      </c>
-      <c r="F45" s="3" t="n">
-        <v>0.7085047</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3" t="n">
-        <v>0.11976385</v>
-      </c>
-      <c r="I45" s="3" t="n">
-        <v>0.09772786</v>
-      </c>
-      <c r="J45" s="3" t="n">
-        <v>0.05869373</v>
+      <c r="D45" s="4" t="n">
+        <v>0.3190732</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>0.3270205</v>
+      </c>
+      <c r="F45" s="4" t="n">
+        <v>0.335703</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4" t="n">
+        <v>0.1588087</v>
+      </c>
+      <c r="I45" s="4" t="n">
+        <v>0.10369966</v>
+      </c>
+      <c r="J45" s="4" t="n">
+        <v>0.05611608</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="2" t="n">
-        <v>0.008225781</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>0.009850632</v>
-      </c>
-      <c r="F46" s="2" t="n">
-        <v>0.010502667</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2" t="n">
-        <v>0.004028779</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>0.003933567</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>0.002419522</v>
+      <c r="D46" s="5" t="n">
+        <v>0.00706825</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>0.007243899</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>0.007326997</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5" t="n">
+        <v>0.005231442</v>
+      </c>
+      <c r="I46" s="5" t="n">
+        <v>0.004136377</v>
+      </c>
+      <c r="J46" s="5" t="n">
+        <v>0.002516461</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="D47" s="3" t="n">
-        <v>10.9872171</v>
-      </c>
-      <c r="E47" s="3" t="n">
-        <v>11.3833416</v>
-      </c>
-      <c r="F47" s="3" t="n">
-        <v>13.4034019</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3" t="n">
-        <v>1.02210946</v>
-      </c>
-      <c r="I47" s="3" t="n">
-        <v>0.62872284</v>
-      </c>
-      <c r="J47" s="3" t="n">
-        <v>0.59117902</v>
+      <c r="D47" s="4" t="n">
+        <v>3.2416113</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>2.7978325</v>
+      </c>
+      <c r="F47" s="4" t="n">
+        <v>2.9605107</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4" t="n">
+        <v>1.6895669</v>
+      </c>
+      <c r="I47" s="4" t="n">
+        <v>0.83480269</v>
+      </c>
+      <c r="J47" s="4" t="n">
+        <v>0.48332975</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="2" t="n">
-        <v>0.341646943</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>0.345564824</v>
-      </c>
-      <c r="F48" s="2" t="n">
-        <v>0.413357697</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2" t="n">
-        <v>0.03781459</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>0.027952841</v>
-      </c>
-      <c r="J48" s="2" t="n">
-        <v>0.027312328</v>
-      </c>
+      <c r="D48" s="5" t="n">
+        <v>0.091987976</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>0.073272808</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>0.077253143</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5" t="n">
+        <v>0.059357822</v>
+      </c>
+      <c r="I48" s="5" t="n">
+        <v>0.034728833</v>
+      </c>
+      <c r="J48" s="5" t="n">
+        <v>0.021473711</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E50" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>5</v>
+      <c r="B50" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4" t="n">
+        <v>0.03089699</v>
+      </c>
+      <c r="I50" s="4" t="n">
+        <v>0.02645414</v>
+      </c>
+      <c r="J50" s="4" t="n">
+        <v>0.01852904</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="0" t="s">
-        <v>6</v>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="5" t="n">
+        <v>0.002040022</v>
+      </c>
+      <c r="I51" s="5" t="n">
+        <v>0.00162113</v>
+      </c>
+      <c r="J51" s="5" t="n">
+        <v>0.001017617</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="0" t="s">
-        <v>7</v>
+      <c r="B52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4" t="n">
+        <v>0.06457042</v>
+      </c>
+      <c r="I52" s="4" t="n">
+        <v>0.05347134</v>
+      </c>
+      <c r="J52" s="4" t="n">
+        <v>0.03791807</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="0" t="s">
-        <v>8</v>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="5" t="n">
+        <v>0.002287848</v>
+      </c>
+      <c r="I53" s="5" t="n">
+        <v>0.00182618</v>
+      </c>
+      <c r="J53" s="5" t="n">
+        <v>0.001220091</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>10</v>
+      <c r="B54" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4" t="n">
+        <v>0.75638542</v>
+      </c>
+      <c r="I54" s="4" t="n">
+        <v>0.42821921</v>
+      </c>
+      <c r="J54" s="4" t="n">
+        <v>0.31652302</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E55" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D57" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="0" t="s">
-        <v>8</v>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="5" t="n">
+        <v>0.029388291</v>
+      </c>
+      <c r="I55" s="5" t="n">
+        <v>0.01691803</v>
+      </c>
+      <c r="J55" s="5" t="n">
+        <v>0.01180547</v>
       </c>
     </row>
   </sheetData>
@@ -946,13 +1065,13 @@
   </sheetPr>
   <dimension ref="B1:T38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L43" activeCellId="0" sqref="L43"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L43" activeCellId="1" sqref="B3:J16 L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1064,44 +1183,44 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>0.054</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <v>0.067</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="n">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="n">
         <v>0.048</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="2" t="n">
         <v>0.061</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="n">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="n">
         <v>0.038</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="J6" s="2" t="n">
         <v>0.048</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="M6" s="2" t="n">
         <v>0.077</v>
       </c>
-      <c r="N6" s="1" t="n">
+      <c r="N6" s="2" t="n">
         <v>0.136</v>
       </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1" t="n">
+      <c r="O6" s="2"/>
+      <c r="P6" s="2" t="n">
         <v>0.069</v>
       </c>
-      <c r="Q6" s="1" t="n">
+      <c r="Q6" s="2" t="n">
         <v>0.12</v>
       </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1" t="n">
+      <c r="R6" s="2"/>
+      <c r="S6" s="2" t="n">
         <v>0.055</v>
       </c>
-      <c r="T6" s="1" t="n">
+      <c r="T6" s="2" t="n">
         <v>0.087</v>
       </c>
     </row>
@@ -1150,44 +1269,44 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <v>0.059</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2" t="n">
         <v>0.046</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="n">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="n">
         <v>0.057</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="2" t="n">
         <v>0.04</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="n">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="n">
         <v>0.057</v>
       </c>
-      <c r="J8" s="1" t="n">
+      <c r="J8" s="2" t="n">
         <v>0.034</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="M8" s="2" t="n">
         <v>0.131</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="N8" s="2" t="n">
         <v>0.114</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1" t="n">
+      <c r="O8" s="2"/>
+      <c r="P8" s="2" t="n">
         <v>0.123</v>
       </c>
-      <c r="Q8" s="1" t="n">
+      <c r="Q8" s="2" t="n">
         <v>0.097</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1" t="n">
+      <c r="R8" s="2"/>
+      <c r="S8" s="2" t="n">
         <v>0.114</v>
       </c>
-      <c r="T8" s="1" t="n">
+      <c r="T8" s="2" t="n">
         <v>0.081</v>
       </c>
     </row>
@@ -1236,44 +1355,44 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <v>0.067</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2" t="n">
         <v>0.069</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="n">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="n">
         <v>0.069</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="2" t="n">
         <v>0.07</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="n">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="n">
         <v>0.07</v>
       </c>
-      <c r="J10" s="1" t="n">
+      <c r="J10" s="2" t="n">
         <v>0.071</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="M10" s="2" t="n">
         <v>0.156</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="N10" s="2" t="n">
         <v>0.172</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1" t="n">
+      <c r="O10" s="2"/>
+      <c r="P10" s="2" t="n">
         <v>0.16</v>
       </c>
-      <c r="Q10" s="1" t="n">
+      <c r="Q10" s="2" t="n">
         <v>0.178</v>
       </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1" t="n">
+      <c r="R10" s="2"/>
+      <c r="S10" s="2" t="n">
         <v>0.158</v>
       </c>
-      <c r="T10" s="1" t="n">
+      <c r="T10" s="2" t="n">
         <v>0.182</v>
       </c>
     </row>
@@ -1322,44 +1441,44 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2" t="n">
         <v>0.066</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2" t="n">
         <v>0.069</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="n">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="n">
         <v>0.065</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="2" t="n">
         <v>0.071</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1" t="n">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="n">
         <v>0.069</v>
       </c>
-      <c r="J12" s="1" t="n">
+      <c r="J12" s="2" t="n">
         <v>0.07</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="M12" s="2" t="n">
         <v>0.151</v>
       </c>
-      <c r="N12" s="1" t="n">
+      <c r="N12" s="2" t="n">
         <v>0.173</v>
       </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1" t="n">
+      <c r="O12" s="2"/>
+      <c r="P12" s="2" t="n">
         <v>0.153</v>
       </c>
-      <c r="Q12" s="1" t="n">
+      <c r="Q12" s="2" t="n">
         <v>0.179</v>
       </c>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1" t="n">
+      <c r="R12" s="2"/>
+      <c r="S12" s="2" t="n">
         <v>0.16</v>
       </c>
-      <c r="T12" s="1" t="n">
+      <c r="T12" s="2" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1408,44 +1527,44 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2" t="n">
         <v>0.059</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="2" t="n">
         <v>0.053</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="n">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="n">
         <v>0.055</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="2" t="n">
         <v>0.053</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="n">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="n">
         <v>0.052</v>
       </c>
-      <c r="J14" s="1" t="n">
+      <c r="J14" s="2" t="n">
         <v>0.055</v>
       </c>
-      <c r="M14" s="1" t="n">
+      <c r="M14" s="2" t="n">
         <v>0.138</v>
       </c>
-      <c r="N14" s="1" t="n">
+      <c r="N14" s="2" t="n">
         <v>0.139</v>
       </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1" t="n">
+      <c r="O14" s="2"/>
+      <c r="P14" s="2" t="n">
         <v>0.141</v>
       </c>
-      <c r="Q14" s="1" t="n">
+      <c r="Q14" s="2" t="n">
         <v>0.138</v>
       </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1" t="n">
+      <c r="R14" s="2"/>
+      <c r="S14" s="2" t="n">
         <v>0.132</v>
       </c>
-      <c r="T14" s="1" t="n">
+      <c r="T14" s="2" t="n">
         <v>0.133</v>
       </c>
     </row>
@@ -1550,44 +1669,44 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="2" t="n">
         <v>0.103</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="2" t="n">
         <v>0.135</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="n">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="2" t="n">
         <v>0.127</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1" t="n">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="n">
         <v>0.093</v>
       </c>
-      <c r="J18" s="1" t="n">
+      <c r="J18" s="2" t="n">
         <v>0.102</v>
       </c>
-      <c r="M18" s="1" t="n">
+      <c r="M18" s="2" t="n">
         <v>0.209</v>
       </c>
-      <c r="N18" s="1" t="n">
+      <c r="N18" s="2" t="n">
         <v>0.295</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1" t="n">
+      <c r="O18" s="2"/>
+      <c r="P18" s="2" t="n">
         <v>0.169</v>
       </c>
-      <c r="Q18" s="1" t="n">
+      <c r="Q18" s="2" t="n">
         <v>0.259</v>
       </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1" t="n">
+      <c r="R18" s="2"/>
+      <c r="S18" s="2" t="n">
         <v>0.156</v>
       </c>
-      <c r="T18" s="1" t="n">
+      <c r="T18" s="2" t="n">
         <v>0.216</v>
       </c>
     </row>
@@ -1636,44 +1755,44 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="2" t="n">
         <v>0.102</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="2" t="n">
         <v>0.074</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="n">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="n">
         <v>0.119</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="2" t="n">
         <v>0.068</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1" t="n">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="n">
         <v>0.133</v>
       </c>
-      <c r="J20" s="1" t="n">
+      <c r="J20" s="2" t="n">
         <v>0.061</v>
       </c>
-      <c r="M20" s="1" t="n">
+      <c r="M20" s="2" t="n">
         <v>0.292</v>
       </c>
-      <c r="N20" s="1" t="n">
+      <c r="N20" s="2" t="n">
         <v>0.209</v>
       </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1" t="n">
+      <c r="O20" s="2"/>
+      <c r="P20" s="2" t="n">
         <v>0.284</v>
       </c>
-      <c r="Q20" s="1" t="n">
+      <c r="Q20" s="2" t="n">
         <v>0.185</v>
       </c>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1" t="n">
+      <c r="R20" s="2"/>
+      <c r="S20" s="2" t="n">
         <v>0.301</v>
       </c>
-      <c r="T20" s="1" t="n">
+      <c r="T20" s="2" t="n">
         <v>0.163</v>
       </c>
     </row>
@@ -1722,44 +1841,44 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="2" t="n">
         <v>0.101</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="2" t="n">
         <v>0.091</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="n">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="n">
         <v>0.102</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G22" s="2" t="n">
         <v>0.092</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1" t="n">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="n">
         <v>0.11</v>
       </c>
-      <c r="J22" s="1" t="n">
+      <c r="J22" s="2" t="n">
         <v>0.085</v>
       </c>
-      <c r="M22" s="1" t="n">
+      <c r="M22" s="2" t="n">
         <v>0.326</v>
       </c>
-      <c r="N22" s="1" t="n">
+      <c r="N22" s="2" t="n">
         <v>0.345</v>
       </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1" t="n">
+      <c r="O22" s="2"/>
+      <c r="P22" s="2" t="n">
         <v>0.307</v>
       </c>
-      <c r="Q22" s="1" t="n">
+      <c r="Q22" s="2" t="n">
         <v>0.33</v>
       </c>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1" t="n">
+      <c r="R22" s="2"/>
+      <c r="S22" s="2" t="n">
         <v>0.321</v>
       </c>
-      <c r="T22" s="1" t="n">
+      <c r="T22" s="2" t="n">
         <v>0.347</v>
       </c>
     </row>
@@ -1808,44 +1927,44 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="2" t="n">
         <v>0.105</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="n">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="n">
         <v>0.105</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G24" s="2" t="n">
         <v>0.104</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1" t="n">
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="n">
         <v>0.114</v>
       </c>
-      <c r="J24" s="1" t="n">
+      <c r="J24" s="2" t="n">
         <v>0.094</v>
       </c>
-      <c r="M24" s="1" t="n">
+      <c r="M24" s="2" t="n">
         <v>0.344</v>
       </c>
-      <c r="N24" s="1" t="n">
+      <c r="N24" s="2" t="n">
         <v>0.381</v>
       </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1" t="n">
+      <c r="O24" s="2"/>
+      <c r="P24" s="2" t="n">
         <v>0.345</v>
       </c>
-      <c r="Q24" s="1" t="n">
+      <c r="Q24" s="2" t="n">
         <v>0.378</v>
       </c>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1" t="n">
+      <c r="R24" s="2"/>
+      <c r="S24" s="2" t="n">
         <v>0.343</v>
       </c>
-      <c r="T24" s="1" t="n">
+      <c r="T24" s="2" t="n">
         <v>0.378</v>
       </c>
     </row>
@@ -1894,44 +2013,44 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="2" t="n">
         <v>0.115</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D26" s="2" t="n">
         <v>0.117</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="n">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="n">
         <v>0.117</v>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="G26" s="2" t="n">
         <v>0.113</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1" t="n">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="n">
         <v>0.114</v>
       </c>
-      <c r="J26" s="1" t="n">
+      <c r="J26" s="2" t="n">
         <v>0.114</v>
       </c>
-      <c r="M26" s="1" t="n">
+      <c r="M26" s="2" t="n">
         <v>0.313</v>
       </c>
-      <c r="N26" s="1" t="n">
+      <c r="N26" s="2" t="n">
         <v>0.308</v>
       </c>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1" t="n">
+      <c r="O26" s="2"/>
+      <c r="P26" s="2" t="n">
         <v>0.306</v>
       </c>
-      <c r="Q26" s="1" t="n">
+      <c r="Q26" s="2" t="n">
         <v>0.298</v>
       </c>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1" t="n">
+      <c r="R26" s="2"/>
+      <c r="S26" s="2" t="n">
         <v>0.318</v>
       </c>
-      <c r="T26" s="1" t="n">
+      <c r="T26" s="2" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2036,44 +2155,44 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="2" t="n">
         <v>0.149</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D30" s="2" t="n">
         <v>0.189</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1" t="n">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="n">
         <v>0.167</v>
       </c>
-      <c r="G30" s="1" t="n">
+      <c r="G30" s="2" t="n">
         <v>0.18</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1" t="n">
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="n">
         <v>0.203</v>
       </c>
-      <c r="J30" s="1" t="n">
+      <c r="J30" s="2" t="n">
         <v>0.155</v>
       </c>
-      <c r="M30" s="1" t="n">
+      <c r="M30" s="2" t="n">
         <v>0.372</v>
       </c>
-      <c r="N30" s="1" t="n">
+      <c r="N30" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1" t="n">
+      <c r="O30" s="2"/>
+      <c r="P30" s="2" t="n">
         <v>0.346</v>
       </c>
-      <c r="Q30" s="1" t="n">
+      <c r="Q30" s="2" t="n">
         <v>0.415</v>
       </c>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1" t="n">
+      <c r="R30" s="2"/>
+      <c r="S30" s="2" t="n">
         <v>0.327</v>
       </c>
-      <c r="T30" s="1" t="n">
+      <c r="T30" s="2" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2122,44 +2241,44 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="2" t="n">
         <v>0.143</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="2" t="n">
         <v>0.094</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1" t="n">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="n">
         <v>0.16</v>
       </c>
-      <c r="G32" s="1" t="n">
+      <c r="G32" s="2" t="n">
         <v>0.098</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1" t="n">
+      <c r="H32" s="2"/>
+      <c r="I32" s="2" t="n">
         <v>0.178</v>
       </c>
-      <c r="J32" s="1" t="n">
+      <c r="J32" s="2" t="n">
         <v>0.094</v>
       </c>
-      <c r="M32" s="1" t="n">
+      <c r="M32" s="2" t="n">
         <v>0.478</v>
       </c>
-      <c r="N32" s="1" t="n">
+      <c r="N32" s="2" t="n">
         <v>0.307</v>
       </c>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1" t="n">
+      <c r="O32" s="2"/>
+      <c r="P32" s="2" t="n">
         <v>0.474</v>
       </c>
-      <c r="Q32" s="1" t="n">
+      <c r="Q32" s="2" t="n">
         <v>0.302</v>
       </c>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1" t="n">
+      <c r="R32" s="2"/>
+      <c r="S32" s="2" t="n">
         <v>0.46</v>
       </c>
-      <c r="T32" s="1" t="n">
+      <c r="T32" s="2" t="n">
         <v>0.253</v>
       </c>
     </row>
@@ -2208,44 +2327,44 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="2" t="n">
         <v>0.124</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D34" s="2" t="n">
         <v>0.115</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1" t="n">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="n">
         <v>0.127</v>
       </c>
-      <c r="G34" s="1" t="n">
+      <c r="G34" s="2" t="n">
         <v>0.106</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1" t="n">
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="n">
         <v>0.133</v>
       </c>
-      <c r="J34" s="1" t="n">
+      <c r="J34" s="2" t="n">
         <v>0.104</v>
       </c>
-      <c r="M34" s="1" t="n">
+      <c r="M34" s="2" t="n">
         <v>0.512</v>
       </c>
-      <c r="N34" s="1" t="n">
+      <c r="N34" s="2" t="n">
         <v>0.576</v>
       </c>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1" t="n">
+      <c r="O34" s="2"/>
+      <c r="P34" s="2" t="n">
         <v>0.512</v>
       </c>
-      <c r="Q34" s="1" t="n">
+      <c r="Q34" s="2" t="n">
         <v>0.541</v>
       </c>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1" t="n">
+      <c r="R34" s="2"/>
+      <c r="S34" s="2" t="n">
         <v>0.502</v>
       </c>
-      <c r="T34" s="1" t="n">
+      <c r="T34" s="2" t="n">
         <v>0.518</v>
       </c>
     </row>
@@ -2294,44 +2413,44 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="2" t="n">
         <v>0.134</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D36" s="2" t="n">
         <v>0.125</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1" t="n">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="n">
         <v>0.131</v>
       </c>
-      <c r="G36" s="1" t="n">
+      <c r="G36" s="2" t="n">
         <v>0.117</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1" t="n">
+      <c r="H36" s="2"/>
+      <c r="I36" s="2" t="n">
         <v>0.137</v>
       </c>
-      <c r="J36" s="1" t="n">
+      <c r="J36" s="2" t="n">
         <v>0.112</v>
       </c>
-      <c r="M36" s="1" t="n">
+      <c r="M36" s="2" t="n">
         <v>0.582</v>
       </c>
-      <c r="N36" s="1" t="n">
+      <c r="N36" s="2" t="n">
         <v>0.628</v>
       </c>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1" t="n">
+      <c r="O36" s="2"/>
+      <c r="P36" s="2" t="n">
         <v>0.575</v>
       </c>
-      <c r="Q36" s="1" t="n">
+      <c r="Q36" s="2" t="n">
         <v>0.595</v>
       </c>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1" t="n">
+      <c r="R36" s="2"/>
+      <c r="S36" s="2" t="n">
         <v>0.541</v>
       </c>
-      <c r="T36" s="1" t="n">
+      <c r="T36" s="2" t="n">
         <v>0.578</v>
       </c>
     </row>
@@ -2380,44 +2499,44 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="1" t="n">
+      <c r="C38" s="2" t="n">
         <v>0.24</v>
       </c>
-      <c r="D38" s="1" t="n">
+      <c r="D38" s="2" t="n">
         <v>0.237</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1" t="n">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="n">
         <v>0.244</v>
       </c>
-      <c r="G38" s="1" t="n">
+      <c r="G38" s="2" t="n">
         <v>0.234</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1" t="n">
+      <c r="H38" s="2"/>
+      <c r="I38" s="2" t="n">
         <v>0.233</v>
       </c>
-      <c r="J38" s="1" t="n">
+      <c r="J38" s="2" t="n">
         <v>0.231</v>
       </c>
-      <c r="M38" s="1" t="n">
+      <c r="M38" s="2" t="n">
         <v>0.499</v>
       </c>
-      <c r="N38" s="1" t="n">
+      <c r="N38" s="2" t="n">
         <v>0.494</v>
       </c>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1" t="n">
+      <c r="O38" s="2"/>
+      <c r="P38" s="2" t="n">
         <v>0.469</v>
       </c>
-      <c r="Q38" s="1" t="n">
+      <c r="Q38" s="2" t="n">
         <v>0.479</v>
       </c>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1" t="n">
+      <c r="R38" s="2"/>
+      <c r="S38" s="2" t="n">
         <v>0.48</v>
       </c>
-      <c r="T38" s="1" t="n">
+      <c r="T38" s="2" t="n">
         <v>0.496</v>
       </c>
     </row>
@@ -2439,11 +2558,14 @@
   </sheetPr>
   <dimension ref="B2:AB159"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U15" activeCellId="0" sqref="U15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U15" activeCellId="1" sqref="B3:J16 U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
